--- a/Transformer/result/eRPE-transformer_daqingyoutian_result_DEN.xlsx
+++ b/Transformer/result/eRPE-transformer_daqingyoutian_result_DEN.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.352004289627075</v>
+        <v>2.328293800354004</v>
       </c>
       <c r="B3" t="n">
         <v>2.362</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.353267192840576</v>
+        <v>2.300112247467041</v>
       </c>
       <c r="B4" t="n">
         <v>2.373</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.359565734863281</v>
+        <v>2.283751010894775</v>
       </c>
       <c r="B5" t="n">
         <v>2.377</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.36133885383606</v>
+        <v>2.275723218917847</v>
       </c>
       <c r="B6" t="n">
         <v>2.379</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.360973834991455</v>
+        <v>2.266220092773438</v>
       </c>
       <c r="B7" t="n">
         <v>2.387</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.357578039169312</v>
+        <v>2.250808000564575</v>
       </c>
       <c r="B8" t="n">
         <v>2.396</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.350097179412842</v>
+        <v>2.23588752746582</v>
       </c>
       <c r="B9" t="n">
         <v>2.403</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.341981887817383</v>
+        <v>2.234364986419678</v>
       </c>
       <c r="B10" t="n">
         <v>2.406</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.335438251495361</v>
+        <v>2.234361171722412</v>
       </c>
       <c r="B11" t="n">
         <v>2.402</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.326097011566162</v>
+        <v>2.233336448669434</v>
       </c>
       <c r="B12" t="n">
         <v>2.387</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.320039510726929</v>
+        <v>2.233786582946777</v>
       </c>
       <c r="B13" t="n">
         <v>2.37</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.317889213562012</v>
+        <v>2.243044137954712</v>
       </c>
       <c r="B14" t="n">
         <v>2.349</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.31483006477356</v>
+        <v>2.248286962509155</v>
       </c>
       <c r="B15" t="n">
         <v>2.316</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.310025691986084</v>
+        <v>2.248717784881592</v>
       </c>
       <c r="B16" t="n">
         <v>2.283</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.308563232421875</v>
+        <v>2.246981382369995</v>
       </c>
       <c r="B17" t="n">
         <v>2.245</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.298815965652466</v>
+        <v>2.241915225982666</v>
       </c>
       <c r="B18" t="n">
         <v>2.221</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.28580641746521</v>
+        <v>2.243293046951294</v>
       </c>
       <c r="B19" t="n">
         <v>2.207</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.271486520767212</v>
+        <v>2.244903087615967</v>
       </c>
       <c r="B20" t="n">
         <v>2.212</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.259195327758789</v>
+        <v>2.249556541442871</v>
       </c>
       <c r="B21" t="n">
         <v>2.216</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.242837905883789</v>
+        <v>2.258294820785522</v>
       </c>
       <c r="B22" t="n">
         <v>2.225</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.238409519195557</v>
+        <v>2.264232397079468</v>
       </c>
       <c r="B23" t="n">
         <v>2.227</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.228919982910156</v>
+        <v>2.266645193099976</v>
       </c>
       <c r="B24" t="n">
         <v>2.232</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.228023529052734</v>
+        <v>2.271299839019775</v>
       </c>
       <c r="B25" t="n">
         <v>2.239</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.228616714477539</v>
+        <v>2.270719051361084</v>
       </c>
       <c r="B26" t="n">
         <v>2.252</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.238703012466431</v>
+        <v>2.266671895980835</v>
       </c>
       <c r="B27" t="n">
         <v>2.269</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.255701065063477</v>
+        <v>2.256515264511108</v>
       </c>
       <c r="B28" t="n">
         <v>2.284</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.272294759750366</v>
+        <v>2.262314558029175</v>
       </c>
       <c r="B29" t="n">
         <v>2.295</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.286715984344482</v>
+        <v>2.26671028137207</v>
       </c>
       <c r="B30" t="n">
         <v>2.3</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.300509452819824</v>
+        <v>2.270304203033447</v>
       </c>
       <c r="B31" t="n">
         <v>2.296</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.306384086608887</v>
+        <v>2.270792007446289</v>
       </c>
       <c r="B32" t="n">
         <v>2.286</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.309385538101196</v>
+        <v>2.274459600448608</v>
       </c>
       <c r="B33" t="n">
         <v>2.276</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.309960842132568</v>
+        <v>2.275867223739624</v>
       </c>
       <c r="B34" t="n">
         <v>2.265</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.311369180679321</v>
+        <v>2.277312755584717</v>
       </c>
       <c r="B35" t="n">
         <v>2.256</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.311940431594849</v>
+        <v>2.269755363464355</v>
       </c>
       <c r="B36" t="n">
         <v>2.249</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.311323404312134</v>
+        <v>2.260143756866455</v>
       </c>
       <c r="B37" t="n">
         <v>2.24</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.306609630584717</v>
+        <v>2.258974075317383</v>
       </c>
       <c r="B38" t="n">
         <v>2.243</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.295259952545166</v>
+        <v>2.256595373153687</v>
       </c>
       <c r="B39" t="n">
         <v>2.245</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.283096790313721</v>
+        <v>2.254647493362427</v>
       </c>
       <c r="B40" t="n">
         <v>2.25</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.270099401473999</v>
+        <v>2.253011226654053</v>
       </c>
       <c r="B41" t="n">
         <v>2.254</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.262238740921021</v>
+        <v>2.255248308181763</v>
       </c>
       <c r="B42" t="n">
         <v>2.249</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.257303237915039</v>
+        <v>2.255800247192383</v>
       </c>
       <c r="B43" t="n">
         <v>2.241</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.25235652923584</v>
+        <v>2.261264324188232</v>
       </c>
       <c r="B44" t="n">
         <v>2.235</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.248006820678711</v>
+        <v>2.263780355453491</v>
       </c>
       <c r="B45" t="n">
         <v>2.231</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.242088079452515</v>
+        <v>2.267821788787842</v>
       </c>
       <c r="B46" t="n">
         <v>2.228</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.238353252410889</v>
+        <v>2.269083499908447</v>
       </c>
       <c r="B47" t="n">
         <v>2.226</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.231467723846436</v>
+        <v>2.27069878578186</v>
       </c>
       <c r="B48" t="n">
         <v>2.227</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.234104633331299</v>
+        <v>2.265255212783813</v>
       </c>
       <c r="B49" t="n">
         <v>2.236</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.236110925674438</v>
+        <v>2.256515264511108</v>
       </c>
       <c r="B50" t="n">
         <v>2.252</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.242042541503906</v>
+        <v>2.247177124023438</v>
       </c>
       <c r="B51" t="n">
         <v>2.266</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.249024868011475</v>
+        <v>2.244319915771484</v>
       </c>
       <c r="B52" t="n">
         <v>2.28</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.255087852478027</v>
+        <v>2.23592472076416</v>
       </c>
       <c r="B53" t="n">
         <v>2.287</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.263187646865845</v>
+        <v>2.230722665786743</v>
       </c>
       <c r="B54" t="n">
         <v>2.294</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.271426439285278</v>
+        <v>2.228670120239258</v>
       </c>
       <c r="B55" t="n">
         <v>2.304</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.280766487121582</v>
+        <v>2.234269857406616</v>
       </c>
       <c r="B56" t="n">
         <v>2.306</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.290319919586182</v>
+        <v>2.232119798660278</v>
       </c>
       <c r="B57" t="n">
         <v>2.303</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.302231550216675</v>
+        <v>2.235467433929443</v>
       </c>
       <c r="B58" t="n">
         <v>2.296</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.307343482971191</v>
+        <v>2.233781099319458</v>
       </c>
       <c r="B59" t="n">
         <v>2.286</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.316888332366943</v>
+        <v>2.238880157470703</v>
       </c>
       <c r="B60" t="n">
         <v>2.281</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.324754476547241</v>
+        <v>2.241782426834106</v>
       </c>
       <c r="B61" t="n">
         <v>2.279</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.329433679580688</v>
+        <v>2.238298892974854</v>
       </c>
       <c r="B62" t="n">
         <v>2.286</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.328897476196289</v>
+        <v>2.233559846878052</v>
       </c>
       <c r="B63" t="n">
         <v>2.308</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.324243545532227</v>
+        <v>2.229923009872437</v>
       </c>
       <c r="B64" t="n">
         <v>2.332</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.316215991973877</v>
+        <v>2.228886604309082</v>
       </c>
       <c r="B65" t="n">
         <v>2.359</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.306418418884277</v>
+        <v>2.232040643692017</v>
       </c>
       <c r="B66" t="n">
         <v>2.369</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.297216415405273</v>
+        <v>2.235170125961304</v>
       </c>
       <c r="B67" t="n">
         <v>2.367</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.282933473587036</v>
+        <v>2.243333339691162</v>
       </c>
       <c r="B68" t="n">
         <v>2.342</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.269793272018433</v>
+        <v>2.252094984054565</v>
       </c>
       <c r="B69" t="n">
         <v>2.301</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.254305124282837</v>
+        <v>2.257730484008789</v>
       </c>
       <c r="B70" t="n">
         <v>2.247</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.235265254974365</v>
+        <v>2.259517669677734</v>
       </c>
       <c r="B71" t="n">
         <v>2.191</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.212302923202515</v>
+        <v>2.260289669036865</v>
       </c>
       <c r="B72" t="n">
         <v>2.139</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.188855886459351</v>
+        <v>2.259440898895264</v>
       </c>
       <c r="B73" t="n">
         <v>2.099</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.166853904724121</v>
+        <v>2.256861209869385</v>
       </c>
       <c r="B74" t="n">
         <v>2.076</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.150481462478638</v>
+        <v>2.253274917602539</v>
       </c>
       <c r="B75" t="n">
         <v>2.069</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.14116382598877</v>
+        <v>2.248327255249023</v>
       </c>
       <c r="B76" t="n">
         <v>2.073</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.135770082473755</v>
+        <v>2.246794462203979</v>
       </c>
       <c r="B77" t="n">
         <v>2.08</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.133764982223511</v>
+        <v>2.24763035774231</v>
       </c>
       <c r="B78" t="n">
         <v>2.094</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.129091262817383</v>
+        <v>2.24246072769165</v>
       </c>
       <c r="B79" t="n">
         <v>2.104</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.129496812820435</v>
+        <v>2.235756397247314</v>
       </c>
       <c r="B80" t="n">
         <v>2.118</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.129893779754639</v>
+        <v>2.227787256240845</v>
       </c>
       <c r="B81" t="n">
         <v>2.134</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.131153583526611</v>
+        <v>2.213485717773438</v>
       </c>
       <c r="B82" t="n">
         <v>2.149</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.138573884963989</v>
+        <v>2.207562923431396</v>
       </c>
       <c r="B83" t="n">
         <v>2.164</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.145697593688965</v>
+        <v>2.201422691345215</v>
       </c>
       <c r="B84" t="n">
         <v>2.175</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.152745962142944</v>
+        <v>2.195796489715576</v>
       </c>
       <c r="B85" t="n">
         <v>2.174</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.159173965454102</v>
+        <v>2.195981979370117</v>
       </c>
       <c r="B86" t="n">
         <v>2.172</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.167801141738892</v>
+        <v>2.198653221130371</v>
       </c>
       <c r="B87" t="n">
         <v>2.175</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.17806077003479</v>
+        <v>2.200608253479004</v>
       </c>
       <c r="B88" t="n">
         <v>2.184</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.184630870819092</v>
+        <v>2.202610015869141</v>
       </c>
       <c r="B89" t="n">
         <v>2.197</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.192015171051025</v>
+        <v>2.194859743118286</v>
       </c>
       <c r="B90" t="n">
         <v>2.199</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.197047472000122</v>
+        <v>2.18387246131897</v>
       </c>
       <c r="B91" t="n">
         <v>2.196</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.202185869216919</v>
+        <v>2.180636882781982</v>
       </c>
       <c r="B92" t="n">
         <v>2.189</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.208778142929077</v>
+        <v>2.182241916656494</v>
       </c>
       <c r="B93" t="n">
         <v>2.186</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.212368249893188</v>
+        <v>2.190958738327026</v>
       </c>
       <c r="B94" t="n">
         <v>2.185</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.218664646148682</v>
+        <v>2.195004463195801</v>
       </c>
       <c r="B95" t="n">
         <v>2.181</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.223027229309082</v>
+        <v>2.207039833068848</v>
       </c>
       <c r="B96" t="n">
         <v>2.183</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.228309869766235</v>
+        <v>2.218734264373779</v>
       </c>
       <c r="B97" t="n">
         <v>2.189</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.232914209365845</v>
+        <v>2.235657453536987</v>
       </c>
       <c r="B98" t="n">
         <v>2.209</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.239153623580933</v>
+        <v>2.252168655395508</v>
       </c>
       <c r="B99" t="n">
         <v>2.234</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.243971109390259</v>
+        <v>2.264856338500977</v>
       </c>
       <c r="B100" t="n">
         <v>2.26</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.247615337371826</v>
+        <v>2.269473075866699</v>
       </c>
       <c r="B101" t="n">
         <v>2.281</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.252235889434814</v>
+        <v>2.27248215675354</v>
       </c>
       <c r="B102" t="n">
         <v>2.306</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.256443738937378</v>
+        <v>2.271653890609741</v>
       </c>
       <c r="B103" t="n">
         <v>2.332</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.262165784835815</v>
+        <v>2.26491641998291</v>
       </c>
       <c r="B104" t="n">
         <v>2.345</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.271936655044556</v>
+        <v>2.254817008972168</v>
       </c>
       <c r="B105" t="n">
         <v>2.344</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.276153564453125</v>
+        <v>2.249679565429688</v>
       </c>
       <c r="B106" t="n">
         <v>2.321</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.27937126159668</v>
+        <v>2.248250246047974</v>
       </c>
       <c r="B107" t="n">
         <v>2.281</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.280599117279053</v>
+        <v>2.251035213470459</v>
       </c>
       <c r="B108" t="n">
         <v>2.245</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.273850440979004</v>
+        <v>2.238720893859863</v>
       </c>
       <c r="B109" t="n">
         <v>2.218</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.274115324020386</v>
+        <v>2.227419137954712</v>
       </c>
       <c r="B110" t="n">
         <v>2.206</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.272346496582031</v>
+        <v>2.222863912582397</v>
       </c>
       <c r="B111" t="n">
         <v>2.213</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.274062156677246</v>
+        <v>2.224920988082886</v>
       </c>
       <c r="B112" t="n">
         <v>2.225</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.280550956726074</v>
+        <v>2.230817794799805</v>
       </c>
       <c r="B113" t="n">
         <v>2.245</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.292058944702148</v>
+        <v>2.244270086288452</v>
       </c>
       <c r="B114" t="n">
         <v>2.261</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.301008701324463</v>
+        <v>2.255994081497192</v>
       </c>
       <c r="B115" t="n">
         <v>2.267</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.303762197494507</v>
+        <v>2.261992692947388</v>
       </c>
       <c r="B116" t="n">
         <v>2.28</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.302273035049438</v>
+        <v>2.267318725585938</v>
       </c>
       <c r="B117" t="n">
         <v>2.287</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.298531055450439</v>
+        <v>2.266985416412354</v>
       </c>
       <c r="B118" t="n">
         <v>2.296</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.287579536437988</v>
+        <v>2.269887447357178</v>
       </c>
       <c r="B119" t="n">
         <v>2.3</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.273605585098267</v>
+        <v>2.269371509552002</v>
       </c>
       <c r="B120" t="n">
         <v>2.298</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.260396242141724</v>
+        <v>2.263201475143433</v>
       </c>
       <c r="B121" t="n">
         <v>2.283</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.245728492736816</v>
+        <v>2.248754978179932</v>
       </c>
       <c r="B122" t="n">
         <v>2.262</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.232212066650391</v>
+        <v>2.227877378463745</v>
       </c>
       <c r="B123" t="n">
         <v>2.239</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.220432281494141</v>
+        <v>2.201620101928711</v>
       </c>
       <c r="B124" t="n">
         <v>2.21</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.212723016738892</v>
+        <v>2.178707599639893</v>
       </c>
       <c r="B125" t="n">
         <v>2.192</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.202095031738281</v>
+        <v>2.157753705978394</v>
       </c>
       <c r="B126" t="n">
         <v>2.183</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.200283288955688</v>
+        <v>2.152082681655884</v>
       </c>
       <c r="B127" t="n">
         <v>2.179</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.198591470718384</v>
+        <v>2.153817176818848</v>
       </c>
       <c r="B128" t="n">
         <v>2.184</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.198700666427612</v>
+        <v>2.161850214004517</v>
       </c>
       <c r="B129" t="n">
         <v>2.187</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.199779272079468</v>
+        <v>2.171369552612305</v>
       </c>
       <c r="B130" t="n">
         <v>2.196</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.207061290740967</v>
+        <v>2.18739128112793</v>
       </c>
       <c r="B131" t="n">
         <v>2.195</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.214471101760864</v>
+        <v>2.207154273986816</v>
       </c>
       <c r="B132" t="n">
         <v>2.188</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.222534894943237</v>
+        <v>2.236434936523438</v>
       </c>
       <c r="B133" t="n">
         <v>2.169</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.229693174362183</v>
+        <v>2.256618022918701</v>
       </c>
       <c r="B134" t="n">
         <v>2.157</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.240824699401855</v>
+        <v>2.266143321990967</v>
       </c>
       <c r="B135" t="n">
         <v>2.148</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.248557090759277</v>
+        <v>2.270721435546875</v>
       </c>
       <c r="B136" t="n">
         <v>2.157</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.25469183921814</v>
+        <v>2.271187782287598</v>
       </c>
       <c r="B137" t="n">
         <v>2.182</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.25829553604126</v>
+        <v>2.272169351577759</v>
       </c>
       <c r="B138" t="n">
         <v>2.216</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.264226198196411</v>
+        <v>2.261070489883423</v>
       </c>
       <c r="B139" t="n">
         <v>2.249</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.265275955200195</v>
+        <v>2.253621578216553</v>
       </c>
       <c r="B140" t="n">
         <v>2.271</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.268230438232422</v>
+        <v>2.249109506607056</v>
       </c>
       <c r="B141" t="n">
         <v>2.271</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.274226903915405</v>
+        <v>2.24553656578064</v>
       </c>
       <c r="B142" t="n">
         <v>2.269</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.273612022399902</v>
+        <v>2.236433029174805</v>
       </c>
       <c r="B143" t="n">
         <v>2.257</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.272758483886719</v>
+        <v>2.225546360015869</v>
       </c>
       <c r="B144" t="n">
         <v>2.254</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.268273830413818</v>
+        <v>2.227306604385376</v>
       </c>
       <c r="B145" t="n">
         <v>2.265</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.264125823974609</v>
+        <v>2.225007057189941</v>
       </c>
       <c r="B146" t="n">
         <v>2.28</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.266183376312256</v>
+        <v>2.219071865081787</v>
       </c>
       <c r="B147" t="n">
         <v>2.303</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.271557331085205</v>
+        <v>2.205912351608276</v>
       </c>
       <c r="B148" t="n">
         <v>2.321</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.279691219329834</v>
+        <v>2.195287942886353</v>
       </c>
       <c r="B149" t="n">
         <v>2.338</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.296825885772705</v>
+        <v>2.188619613647461</v>
       </c>
       <c r="B150" t="n">
         <v>2.35</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.309539794921875</v>
+        <v>2.190333604812622</v>
       </c>
       <c r="B151" t="n">
         <v>2.356</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.315769195556641</v>
+        <v>2.209280014038086</v>
       </c>
       <c r="B152" t="n">
         <v>2.358</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.322913885116577</v>
+        <v>2.209612369537354</v>
       </c>
       <c r="B153" t="n">
         <v>2.347</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.322826147079468</v>
+        <v>2.198624849319458</v>
       </c>
       <c r="B154" t="n">
         <v>2.326</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.323473691940308</v>
+        <v>2.198313474655151</v>
       </c>
       <c r="B155" t="n">
         <v>2.293</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.32140326499939</v>
+        <v>2.20102071762085</v>
       </c>
       <c r="B156" t="n">
         <v>2.263</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.308782577514648</v>
+        <v>2.207156419754028</v>
       </c>
       <c r="B157" t="n">
         <v>2.237</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.294961929321289</v>
+        <v>2.214510440826416</v>
       </c>
       <c r="B158" t="n">
         <v>2.222</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.273515701293945</v>
+        <v>2.220391988754272</v>
       </c>
       <c r="B159" t="n">
         <v>2.206</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.255306243896484</v>
+        <v>2.229881525039673</v>
       </c>
       <c r="B160" t="n">
         <v>2.192</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.229076862335205</v>
+        <v>2.239168405532837</v>
       </c>
       <c r="B161" t="n">
         <v>2.182</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.208224773406982</v>
+        <v>2.252316236495972</v>
       </c>
       <c r="B162" t="n">
         <v>2.178</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.193902969360352</v>
+        <v>2.262645959854126</v>
       </c>
       <c r="B163" t="n">
         <v>2.18</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.186038255691528</v>
+        <v>2.280044078826904</v>
       </c>
       <c r="B164" t="n">
         <v>2.183</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.177666664123535</v>
+        <v>2.282840490341187</v>
       </c>
       <c r="B165" t="n">
         <v>2.179</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.175862073898315</v>
+        <v>2.284347772598267</v>
       </c>
       <c r="B166" t="n">
         <v>2.171</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.168735027313232</v>
+        <v>2.277670383453369</v>
       </c>
       <c r="B167" t="n">
         <v>2.153</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.165257930755615</v>
+        <v>2.263255834579468</v>
       </c>
       <c r="B168" t="n">
         <v>2.139</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.163278818130493</v>
+        <v>2.248611450195312</v>
       </c>
       <c r="B169" t="n">
         <v>2.131</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.164695501327515</v>
+        <v>2.231325387954712</v>
       </c>
       <c r="B170" t="n">
         <v>2.126</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.166375875473022</v>
+        <v>2.216935873031616</v>
       </c>
       <c r="B171" t="n">
         <v>2.133</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.173065900802612</v>
+        <v>2.210850477218628</v>
       </c>
       <c r="B172" t="n">
         <v>2.146</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.180989503860474</v>
+        <v>2.201564788818359</v>
       </c>
       <c r="B173" t="n">
         <v>2.167</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.192924022674561</v>
+        <v>2.192140340805054</v>
       </c>
       <c r="B174" t="n">
         <v>2.183</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.197848320007324</v>
+        <v>2.188145637512207</v>
       </c>
       <c r="B175" t="n">
         <v>2.193</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.201153993606567</v>
+        <v>2.190659523010254</v>
       </c>
       <c r="B176" t="n">
         <v>2.196</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.201370716094971</v>
+        <v>2.189657688140869</v>
       </c>
       <c r="B177" t="n">
         <v>2.204</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.202655792236328</v>
+        <v>2.190480470657349</v>
       </c>
       <c r="B178" t="n">
         <v>2.208</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.208101987838745</v>
+        <v>2.189920425415039</v>
       </c>
       <c r="B179" t="n">
         <v>2.215</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.214989423751831</v>
+        <v>2.187528133392334</v>
       </c>
       <c r="B180" t="n">
         <v>2.225</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.220568895339966</v>
+        <v>2.191665649414062</v>
       </c>
       <c r="B181" t="n">
         <v>2.237</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.223925113677979</v>
+        <v>2.204878807067871</v>
       </c>
       <c r="B182" t="n">
         <v>2.245</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.223337411880493</v>
+        <v>2.216238975524902</v>
       </c>
       <c r="B183" t="n">
         <v>2.26</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.224275350570679</v>
+        <v>2.20975136756897</v>
       </c>
       <c r="B184" t="n">
         <v>2.263</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.225234985351562</v>
+        <v>2.209377765655518</v>
       </c>
       <c r="B185" t="n">
         <v>2.267</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.222591876983643</v>
+        <v>2.221303701400757</v>
       </c>
       <c r="B186" t="n">
         <v>2.272</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.229554414749146</v>
+        <v>2.238263130187988</v>
       </c>
       <c r="B187" t="n">
         <v>2.278</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.234425067901611</v>
+        <v>2.244245529174805</v>
       </c>
       <c r="B188" t="n">
         <v>2.296</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.243018865585327</v>
+        <v>2.244420051574707</v>
       </c>
       <c r="B189" t="n">
         <v>2.314</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.257450580596924</v>
+        <v>2.241318225860596</v>
       </c>
       <c r="B190" t="n">
         <v>2.336</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.271355152130127</v>
+        <v>2.237531661987305</v>
       </c>
       <c r="B191" t="n">
         <v>2.35</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.284095048904419</v>
+        <v>2.247313499450684</v>
       </c>
       <c r="B192" t="n">
         <v>2.35</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.294820785522461</v>
+        <v>2.253384113311768</v>
       </c>
       <c r="B193" t="n">
         <v>2.337</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.302998542785645</v>
+        <v>2.255260467529297</v>
       </c>
       <c r="B194" t="n">
         <v>2.317</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.300711154937744</v>
+        <v>2.238299369812012</v>
       </c>
       <c r="B195" t="n">
         <v>2.301</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.302899360656738</v>
+        <v>2.215607404708862</v>
       </c>
       <c r="B196" t="n">
         <v>2.289</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.297451972961426</v>
+        <v>2.198808670043945</v>
       </c>
       <c r="B197" t="n">
         <v>2.281</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.293342351913452</v>
+        <v>2.184869527816772</v>
       </c>
       <c r="B198" t="n">
         <v>2.279</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.2933509349823</v>
+        <v>2.174373149871826</v>
       </c>
       <c r="B199" t="n">
         <v>2.275</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.292927503585815</v>
+        <v>2.178035259246826</v>
       </c>
       <c r="B200" t="n">
         <v>2.27</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.285418272018433</v>
+        <v>2.172729969024658</v>
       </c>
       <c r="B201" t="n">
         <v>2.263</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.285418272018433</v>
+        <v>2.159355163574219</v>
       </c>
       <c r="B202" t="n">
         <v>2.255</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.281160354614258</v>
+        <v>2.156347036361694</v>
       </c>
       <c r="B203" t="n">
         <v>2.25</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.281178951263428</v>
+        <v>2.171333312988281</v>
       </c>
       <c r="B204" t="n">
         <v>2.244</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.273896217346191</v>
+        <v>2.170317411422729</v>
       </c>
       <c r="B205" t="n">
         <v>2.248</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.267415523529053</v>
+        <v>2.171109676361084</v>
       </c>
       <c r="B206" t="n">
         <v>2.255</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.262042284011841</v>
+        <v>2.152809143066406</v>
       </c>
       <c r="B207" t="n">
         <v>2.276</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.255516052246094</v>
+        <v>2.143490076065063</v>
       </c>
       <c r="B208" t="n">
         <v>2.302</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.241253852844238</v>
+        <v>2.134394645690918</v>
       </c>
       <c r="B209" t="n">
         <v>2.325</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.221784591674805</v>
+        <v>2.126255989074707</v>
       </c>
       <c r="B210" t="n">
         <v>2.345</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.211548566818237</v>
+        <v>2.119903326034546</v>
       </c>
       <c r="B211" t="n">
         <v>2.342</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.201100587844849</v>
+        <v>2.122334718704224</v>
       </c>
       <c r="B212" t="n">
         <v>2.338</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.188192367553711</v>
+        <v>2.126069068908691</v>
       </c>
       <c r="B213" t="n">
         <v>2.33</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.171891689300537</v>
+        <v>2.132567167282104</v>
       </c>
       <c r="B214" t="n">
         <v>2.315</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.160784006118774</v>
+        <v>2.145757913589478</v>
       </c>
       <c r="B215" t="n">
         <v>2.311</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.156327962875366</v>
+        <v>2.181275129318237</v>
       </c>
       <c r="B216" t="n">
         <v>2.314</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.155465126037598</v>
+        <v>2.211726903915405</v>
       </c>
       <c r="B217" t="n">
         <v>2.336</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.162144660949707</v>
+        <v>2.236499309539795</v>
       </c>
       <c r="B218" t="n">
         <v>2.36</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.18070650100708</v>
+        <v>2.248210668563843</v>
       </c>
       <c r="B219" t="n">
         <v>2.377</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.206295490264893</v>
+        <v>2.249706983566284</v>
       </c>
       <c r="B220" t="n">
         <v>2.374</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.223126173019409</v>
+        <v>2.248761653900146</v>
       </c>
       <c r="B221" t="n">
         <v>2.365</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.230034351348877</v>
+        <v>2.238803386688232</v>
       </c>
       <c r="B222" t="n">
         <v>2.363</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.232622623443604</v>
+        <v>2.23209810256958</v>
       </c>
       <c r="B223" t="n">
         <v>2.384</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.229525566101074</v>
+        <v>2.226578950881958</v>
       </c>
       <c r="B224" t="n">
         <v>2.419</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.225771903991699</v>
+        <v>2.218482255935669</v>
       </c>
       <c r="B225" t="n">
         <v>2.448</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.22898268699646</v>
+        <v>2.202753782272339</v>
       </c>
       <c r="B226" t="n">
         <v>2.454</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.238069534301758</v>
+        <v>2.212165355682373</v>
       </c>
       <c r="B227" t="n">
         <v>2.442</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.245567560195923</v>
+        <v>2.232128381729126</v>
       </c>
       <c r="B228" t="n">
         <v>2.416</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.258283376693726</v>
+        <v>2.24424934387207</v>
       </c>
       <c r="B229" t="n">
         <v>2.399</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.258402347564697</v>
+        <v>2.251282691955566</v>
       </c>
       <c r="B230" t="n">
         <v>2.375</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.260217189788818</v>
+        <v>2.259649038314819</v>
       </c>
       <c r="B231" t="n">
         <v>2.35</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.260712623596191</v>
+        <v>2.269253492355347</v>
       </c>
       <c r="B232" t="n">
         <v>2.326</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.259927272796631</v>
+        <v>2.278261423110962</v>
       </c>
       <c r="B233" t="n">
         <v>2.296</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.260022640228271</v>
+        <v>2.274597644805908</v>
       </c>
       <c r="B234" t="n">
         <v>2.282</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.256747961044312</v>
+        <v>2.265848875045776</v>
       </c>
       <c r="B235" t="n">
         <v>2.276</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.254707098007202</v>
+        <v>2.246510028839111</v>
       </c>
       <c r="B236" t="n">
         <v>2.265</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.241965532302856</v>
+        <v>2.218708992004395</v>
       </c>
       <c r="B237" t="n">
         <v>2.251</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.230164289474487</v>
+        <v>2.184429407119751</v>
       </c>
       <c r="B238" t="n">
         <v>2.231</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.225180864334106</v>
+        <v>2.168360710144043</v>
       </c>
       <c r="B239" t="n">
         <v>2.215</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.227606296539307</v>
+        <v>2.175024509429932</v>
       </c>
       <c r="B240" t="n">
         <v>2.211</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.220108509063721</v>
+        <v>2.191518306732178</v>
       </c>
       <c r="B241" t="n">
         <v>2.212</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.211994647979736</v>
+        <v>2.194479703903198</v>
       </c>
       <c r="B242" t="n">
         <v>2.226</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.206216812133789</v>
+        <v>2.194281578063965</v>
       </c>
       <c r="B243" t="n">
         <v>2.245</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.204902648925781</v>
+        <v>2.181244373321533</v>
       </c>
       <c r="B244" t="n">
         <v>2.258</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.200339555740356</v>
+        <v>2.168701648712158</v>
       </c>
       <c r="B245" t="n">
         <v>2.265</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.192592144012451</v>
+        <v>2.1591796875</v>
       </c>
       <c r="B246" t="n">
         <v>2.26</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.183285236358643</v>
+        <v>2.145909070968628</v>
       </c>
       <c r="B247" t="n">
         <v>2.279</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.170692443847656</v>
+        <v>2.125193357467651</v>
       </c>
       <c r="B248" t="n">
         <v>2.285</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.161493539810181</v>
+        <v>2.10761570930481</v>
       </c>
       <c r="B249" t="n">
         <v>2.278</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.152296304702759</v>
+        <v>2.1036057472229</v>
       </c>
       <c r="B250" t="n">
         <v>2.287</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.148299932479858</v>
+        <v>2.111179828643799</v>
       </c>
       <c r="B251" t="n">
         <v>2.291</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.144507884979248</v>
+        <v>2.120434999465942</v>
       </c>
       <c r="B252" t="n">
         <v>2.296</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.144645929336548</v>
+        <v>2.129346609115601</v>
       </c>
       <c r="B253" t="n">
         <v>2.3</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.144214630126953</v>
+        <v>2.141353130340576</v>
       </c>
       <c r="B254" t="n">
         <v>2.304</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.142647266387939</v>
+        <v>2.14650559425354</v>
       </c>
       <c r="B255" t="n">
         <v>2.299</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.139957904815674</v>
+        <v>2.158430814743042</v>
       </c>
       <c r="B256" t="n">
         <v>2.288</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.144220113754272</v>
+        <v>2.167687892913818</v>
       </c>
       <c r="B257" t="n">
         <v>2.279</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.156128168106079</v>
+        <v>2.175052165985107</v>
       </c>
       <c r="B258" t="n">
         <v>2.253</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.172034502029419</v>
+        <v>2.181316375732422</v>
       </c>
       <c r="B259" t="n">
         <v>2.229</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.188799142837524</v>
+        <v>2.177977323532104</v>
       </c>
       <c r="B260" t="n">
         <v>2.191</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.203014373779297</v>
+        <v>2.181936502456665</v>
       </c>
       <c r="B261" t="n">
         <v>2.156</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.223681688308716</v>
+        <v>2.188355207443237</v>
       </c>
       <c r="B262" t="n">
         <v>2.124</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.232032060623169</v>
+        <v>2.209628582000732</v>
       </c>
       <c r="B263" t="n">
         <v>2.102</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.239284992218018</v>
+        <v>2.227218389511108</v>
       </c>
       <c r="B264" t="n">
         <v>2.097</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.243477821350098</v>
+        <v>2.243372440338135</v>
       </c>
       <c r="B265" t="n">
         <v>2.109</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.24902081489563</v>
+        <v>2.273705005645752</v>
       </c>
       <c r="B266" t="n">
         <v>2.145</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.253604412078857</v>
+        <v>2.286525011062622</v>
       </c>
       <c r="B267" t="n">
         <v>2.19</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.261771202087402</v>
+        <v>2.279508113861084</v>
       </c>
       <c r="B268" t="n">
         <v>2.231</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.275909662246704</v>
+        <v>2.277976989746094</v>
       </c>
       <c r="B269" t="n">
         <v>2.254</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.289134979248047</v>
+        <v>2.277578830718994</v>
       </c>
       <c r="B270" t="n">
         <v>2.26</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.30253267288208</v>
+        <v>2.284442186355591</v>
       </c>
       <c r="B271" t="n">
         <v>2.27</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.308802366256714</v>
+        <v>2.28492283821106</v>
       </c>
       <c r="B272" t="n">
         <v>2.285</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.31376051902771</v>
+        <v>2.279171943664551</v>
       </c>
       <c r="B273" t="n">
         <v>2.302</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.31388521194458</v>
+        <v>2.268640279769897</v>
       </c>
       <c r="B274" t="n">
         <v>2.308</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2.308902025222778</v>
+        <v>2.255185842514038</v>
       </c>
       <c r="B275" t="n">
         <v>2.3</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.299048900604248</v>
+        <v>2.248172044754028</v>
       </c>
       <c r="B276" t="n">
         <v>2.281</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.28385329246521</v>
+        <v>2.247746467590332</v>
       </c>
       <c r="B277" t="n">
         <v>2.268</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.265147686004639</v>
+        <v>2.245986461639404</v>
       </c>
       <c r="B278" t="n">
         <v>2.257</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.257291555404663</v>
+        <v>2.23999810218811</v>
       </c>
       <c r="B279" t="n">
         <v>2.257</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.250185012817383</v>
+        <v>2.238193511962891</v>
       </c>
       <c r="B280" t="n">
         <v>2.256</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.24978494644165</v>
+        <v>2.236150979995728</v>
       </c>
       <c r="B281" t="n">
         <v>2.258</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.252393960952759</v>
+        <v>2.238110780715942</v>
       </c>
       <c r="B282" t="n">
         <v>2.263</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.256861448287964</v>
+        <v>2.232790946960449</v>
       </c>
       <c r="B283" t="n">
         <v>2.27</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.26318883895874</v>
+        <v>2.216935157775879</v>
       </c>
       <c r="B284" t="n">
         <v>2.276</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.264681339263916</v>
+        <v>2.20451807975769</v>
       </c>
       <c r="B285" t="n">
         <v>2.279</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2.274059772491455</v>
+        <v>2.189142942428589</v>
       </c>
       <c r="B286" t="n">
         <v>2.294</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.286277055740356</v>
+        <v>2.189061641693115</v>
       </c>
       <c r="B287" t="n">
         <v>2.307</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.291048765182495</v>
+        <v>2.177040815353394</v>
       </c>
       <c r="B288" t="n">
         <v>2.325</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.286299228668213</v>
+        <v>2.169764757156372</v>
       </c>
       <c r="B289" t="n">
         <v>2.33</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2.283536195755005</v>
+        <v>2.169467687606812</v>
       </c>
       <c r="B290" t="n">
         <v>2.322</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2.284535646438599</v>
+        <v>2.171916961669922</v>
       </c>
       <c r="B291" t="n">
         <v>2.297</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2.284599304199219</v>
+        <v>2.179421663284302</v>
       </c>
       <c r="B292" t="n">
         <v>2.269</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.27700138092041</v>
+        <v>2.191251516342163</v>
       </c>
       <c r="B293" t="n">
         <v>2.251</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.264875173568726</v>
+        <v>2.203640937805176</v>
       </c>
       <c r="B294" t="n">
         <v>2.251</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.253125190734863</v>
+        <v>2.217246532440186</v>
       </c>
       <c r="B295" t="n">
         <v>2.26</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.250735521316528</v>
+        <v>2.226702213287354</v>
       </c>
       <c r="B296" t="n">
         <v>2.272</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.256135940551758</v>
+        <v>2.242825508117676</v>
       </c>
       <c r="B297" t="n">
         <v>2.271</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.262935400009155</v>
+        <v>2.275858640670776</v>
       </c>
       <c r="B298" t="n">
         <v>2.265</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.263897895812988</v>
+        <v>2.305405378341675</v>
       </c>
       <c r="B299" t="n">
         <v>2.244</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.263621807098389</v>
+        <v>2.313889265060425</v>
       </c>
       <c r="B300" t="n">
         <v>2.227</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.262692928314209</v>
+        <v>2.308222532272339</v>
       </c>
       <c r="B301" t="n">
         <v>2.222</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.261808156967163</v>
+        <v>2.313072919845581</v>
       </c>
       <c r="B302" t="n">
         <v>2.222</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2.266084432601929</v>
+        <v>2.314054250717163</v>
       </c>
       <c r="B303" t="n">
         <v>2.248</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2.26916766166687</v>
+        <v>2.306932926177979</v>
       </c>
       <c r="B304" t="n">
         <v>2.263</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.268937587738037</v>
+        <v>2.303632497787476</v>
       </c>
       <c r="B305" t="n">
         <v>2.267</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2.269795179367065</v>
+        <v>2.292407989501953</v>
       </c>
       <c r="B306" t="n">
         <v>2.25</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2.269572257995605</v>
+        <v>2.277147531509399</v>
       </c>
       <c r="B307" t="n">
         <v>2.221</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.265476226806641</v>
+        <v>2.264728307723999</v>
       </c>
       <c r="B308" t="n">
         <v>2.199</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2.271194219589233</v>
+        <v>2.252505779266357</v>
       </c>
       <c r="B309" t="n">
         <v>2.191</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.27332067489624</v>
+        <v>2.242677688598633</v>
       </c>
       <c r="B310" t="n">
         <v>2.21</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.276033163070679</v>
+        <v>2.240348815917969</v>
       </c>
       <c r="B311" t="n">
         <v>2.233</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2.282092809677124</v>
+        <v>2.239922285079956</v>
       </c>
       <c r="B312" t="n">
         <v>2.251</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.296133279800415</v>
+        <v>2.231392383575439</v>
       </c>
       <c r="B313" t="n">
         <v>2.245</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2.309913635253906</v>
+        <v>2.216048717498779</v>
       </c>
       <c r="B314" t="n">
         <v>2.232</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.322033405303955</v>
+        <v>2.206585168838501</v>
       </c>
       <c r="B315" t="n">
         <v>2.215</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2.336338520050049</v>
+        <v>2.206990242004395</v>
       </c>
       <c r="B316" t="n">
         <v>2.21</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.34064245223999</v>
+        <v>2.208922386169434</v>
       </c>
       <c r="B317" t="n">
         <v>2.208</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.330142259597778</v>
+        <v>2.199126005172729</v>
       </c>
       <c r="B318" t="n">
         <v>2.217</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.318013191223145</v>
+        <v>2.185053586959839</v>
       </c>
       <c r="B319" t="n">
         <v>2.225</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2.313546419143677</v>
+        <v>2.190587520599365</v>
       </c>
       <c r="B320" t="n">
         <v>2.239</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.313359498977661</v>
+        <v>2.197350978851318</v>
       </c>
       <c r="B321" t="n">
         <v>2.253</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.317508697509766</v>
+        <v>2.197350978851318</v>
       </c>
       <c r="B322" t="n">
         <v>2.253</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2.311042785644531</v>
+        <v>2.201963424682617</v>
       </c>
       <c r="B323" t="n">
         <v>2.267</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2.300297021865845</v>
+        <v>2.213420867919922</v>
       </c>
       <c r="B324" t="n">
         <v>2.278</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.289218425750732</v>
+        <v>2.222751379013062</v>
       </c>
       <c r="B325" t="n">
         <v>2.294</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.28846263885498</v>
+        <v>2.238261461257935</v>
       </c>
       <c r="B326" t="n">
         <v>2.32</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.291036605834961</v>
+        <v>2.257461547851562</v>
       </c>
       <c r="B327" t="n">
         <v>2.345</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.301512718200684</v>
+        <v>2.27234411239624</v>
       </c>
       <c r="B328" t="n">
         <v>2.352</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.314738750457764</v>
+        <v>2.287377119064331</v>
       </c>
       <c r="B329" t="n">
         <v>2.339</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2.323750972747803</v>
+        <v>2.29663872718811</v>
       </c>
       <c r="B330" t="n">
         <v>2.328</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2.323254108428955</v>
+        <v>2.299639225006104</v>
       </c>
       <c r="B331" t="n">
         <v>2.311</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2.308987379074097</v>
+        <v>2.301817655563354</v>
       </c>
       <c r="B332" t="n">
         <v>2.292</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2.299396991729736</v>
+        <v>2.306369304656982</v>
       </c>
       <c r="B333" t="n">
         <v>2.277</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.285194158554077</v>
+        <v>2.305862665176392</v>
       </c>
       <c r="B334" t="n">
         <v>2.267</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2.281113147735596</v>
+        <v>2.304318904876709</v>
       </c>
       <c r="B335" t="n">
         <v>2.283</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2.288048505783081</v>
+        <v>2.299109697341919</v>
       </c>
       <c r="B336" t="n">
         <v>2.314</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2.2972412109375</v>
+        <v>2.292235136032104</v>
       </c>
       <c r="B337" t="n">
         <v>2.34</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2.295209169387817</v>
+        <v>2.281282186508179</v>
       </c>
       <c r="B338" t="n">
         <v>2.349</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2.285089731216431</v>
+        <v>2.272626638412476</v>
       </c>
       <c r="B339" t="n">
         <v>2.35</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2.275213956832886</v>
+        <v>2.266009569168091</v>
       </c>
       <c r="B340" t="n">
         <v>2.358</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2.268199443817139</v>
+        <v>2.256541728973389</v>
       </c>
       <c r="B341" t="n">
         <v>2.383</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2.272614717483521</v>
+        <v>2.250752687454224</v>
       </c>
       <c r="B342" t="n">
         <v>2.392</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2.281293630599976</v>
+        <v>2.243802547454834</v>
       </c>
       <c r="B343" t="n">
         <v>2.386</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2.285017728805542</v>
+        <v>2.239499807357788</v>
       </c>
       <c r="B344" t="n">
         <v>2.352</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.286888360977173</v>
+        <v>2.232337474822998</v>
       </c>
       <c r="B345" t="n">
         <v>2.315</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2.285178899765015</v>
+        <v>2.223120927810669</v>
       </c>
       <c r="B346" t="n">
         <v>2.27</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.287352323532104</v>
+        <v>2.222990989685059</v>
       </c>
       <c r="B347" t="n">
         <v>2.236</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.286282062530518</v>
+        <v>2.227337121963501</v>
       </c>
       <c r="B348" t="n">
         <v>2.21</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2.28481125831604</v>
+        <v>2.235955476760864</v>
       </c>
       <c r="B349" t="n">
         <v>2.206</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.295812129974365</v>
+        <v>2.243178606033325</v>
       </c>
       <c r="B350" t="n">
         <v>2.21</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2.28899621963501</v>
+        <v>2.247998237609863</v>
       </c>
       <c r="B351" t="n">
         <v>2.217</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.283713579177856</v>
+        <v>2.25008749961853</v>
       </c>
       <c r="B352" t="n">
         <v>2.225</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2.268700361251831</v>
+        <v>2.252822399139404</v>
       </c>
       <c r="B353" t="n">
         <v>2.242</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2.273508071899414</v>
+        <v>2.255057334899902</v>
       </c>
       <c r="B354" t="n">
         <v>2.266</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.285828113555908</v>
+        <v>2.260617017745972</v>
       </c>
       <c r="B355" t="n">
         <v>2.28</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2.301884174346924</v>
+        <v>2.267274618148804</v>
       </c>
       <c r="B356" t="n">
         <v>2.282</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.30702805519104</v>
+        <v>2.2709059715271</v>
       </c>
       <c r="B357" t="n">
         <v>2.287</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2.303089141845703</v>
+        <v>2.273973226547241</v>
       </c>
       <c r="B358" t="n">
         <v>2.301</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2.296081304550171</v>
+        <v>2.269333362579346</v>
       </c>
       <c r="B359" t="n">
         <v>2.319</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.286954879760742</v>
+        <v>2.268232107162476</v>
       </c>
       <c r="B360" t="n">
         <v>2.323</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2.280608415603638</v>
+        <v>2.266664028167725</v>
       </c>
       <c r="B361" t="n">
         <v>2.314</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2.276573657989502</v>
+        <v>2.265280246734619</v>
       </c>
       <c r="B362" t="n">
         <v>2.306</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.264675140380859</v>
+        <v>2.263523101806641</v>
       </c>
       <c r="B363" t="n">
         <v>2.299</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.255844116210938</v>
+        <v>2.257175922393799</v>
       </c>
       <c r="B364" t="n">
         <v>2.3</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.245158672332764</v>
+        <v>2.253867864608765</v>
       </c>
       <c r="B365" t="n">
         <v>2.295</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.24067234992981</v>
+        <v>2.242481470108032</v>
       </c>
       <c r="B366" t="n">
         <v>2.297</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2.227605104446411</v>
+        <v>2.230891704559326</v>
       </c>
       <c r="B367" t="n">
         <v>2.302</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.220410585403442</v>
+        <v>2.225771427154541</v>
       </c>
       <c r="B368" t="n">
         <v>2.315</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2.219946622848511</v>
+        <v>2.226423501968384</v>
       </c>
       <c r="B369" t="n">
         <v>2.334</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.219278335571289</v>
+        <v>2.228944778442383</v>
       </c>
       <c r="B370" t="n">
         <v>2.356</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.214968681335449</v>
+        <v>2.235093116760254</v>
       </c>
       <c r="B371" t="n">
         <v>2.377</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2.214127540588379</v>
+        <v>2.24095630645752</v>
       </c>
       <c r="B372" t="n">
         <v>2.399</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2.211846590042114</v>
+        <v>2.243011474609375</v>
       </c>
       <c r="B373" t="n">
         <v>2.416</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.215508222579956</v>
+        <v>2.242319583892822</v>
       </c>
       <c r="B374" t="n">
         <v>2.44</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2.217669725418091</v>
+        <v>2.242274761199951</v>
       </c>
       <c r="B375" t="n">
         <v>2.459</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2.226436376571655</v>
+        <v>2.244340896606445</v>
       </c>
       <c r="B376" t="n">
         <v>2.463</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2.226298570632935</v>
+        <v>2.242409706115723</v>
       </c>
       <c r="B377" t="n">
         <v>2.449</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2.219983577728271</v>
+        <v>2.236792325973511</v>
       </c>
       <c r="B378" t="n">
         <v>2.427</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2.2214515209198</v>
+        <v>2.231062412261963</v>
       </c>
       <c r="B379" t="n">
         <v>2.407</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2.211830139160156</v>
+        <v>2.229471921920776</v>
       </c>
       <c r="B380" t="n">
         <v>2.394</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2.209726095199585</v>
+        <v>2.222967386245728</v>
       </c>
       <c r="B381" t="n">
         <v>2.378</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2.213188886642456</v>
+        <v>2.216088056564331</v>
       </c>
       <c r="B382" t="n">
         <v>2.354</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2.219037532806396</v>
+        <v>2.207154750823975</v>
       </c>
       <c r="B383" t="n">
         <v>2.335</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.225908279418945</v>
+        <v>2.189683675765991</v>
       </c>
       <c r="B384" t="n">
         <v>2.317</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.231078624725342</v>
+        <v>2.178391456604004</v>
       </c>
       <c r="B385" t="n">
         <v>2.3</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2.228917598724365</v>
+        <v>2.16624903678894</v>
       </c>
       <c r="B386" t="n">
         <v>2.289</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2.220929622650146</v>
+        <v>2.157923460006714</v>
       </c>
       <c r="B387" t="n">
         <v>2.279</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2.218856573104858</v>
+        <v>2.15935230255127</v>
       </c>
       <c r="B388" t="n">
         <v>2.267</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2.21831202507019</v>
+        <v>2.167415380477905</v>
       </c>
       <c r="B389" t="n">
         <v>2.25</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2.220288515090942</v>
+        <v>2.179567813873291</v>
       </c>
       <c r="B390" t="n">
         <v>2.235</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2.2279052734375</v>
+        <v>2.190960884094238</v>
       </c>
       <c r="B391" t="n">
         <v>2.215</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2.235297918319702</v>
+        <v>2.201438665390015</v>
       </c>
       <c r="B392" t="n">
         <v>2.207</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2.23562216758728</v>
+        <v>2.206786394119263</v>
       </c>
       <c r="B393" t="n">
         <v>2.222</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2.246814489364624</v>
+        <v>2.208554267883301</v>
       </c>
       <c r="B394" t="n">
         <v>2.239</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.258454561233521</v>
+        <v>2.219916820526123</v>
       </c>
       <c r="B395" t="n">
         <v>2.261</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.274865865707397</v>
+        <v>2.226704120635986</v>
       </c>
       <c r="B396" t="n">
         <v>2.272</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.277230978012085</v>
+        <v>2.233237266540527</v>
       </c>
       <c r="B397" t="n">
         <v>2.296</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.275576591491699</v>
+        <v>2.238359928131104</v>
       </c>
       <c r="B398" t="n">
         <v>2.326</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.277078628540039</v>
+        <v>2.24805760383606</v>
       </c>
       <c r="B399" t="n">
         <v>2.356</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.284897089004517</v>
+        <v>2.251247644424438</v>
       </c>
       <c r="B400" t="n">
         <v>2.385</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.300962209701538</v>
+        <v>2.251693964004517</v>
       </c>
       <c r="B401" t="n">
         <v>2.408</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.314629793167114</v>
+        <v>2.251975536346436</v>
       </c>
       <c r="B402" t="n">
         <v>2.425</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.322797775268555</v>
+        <v>2.247262239456177</v>
       </c>
       <c r="B403" t="n">
         <v>2.427</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2.31065821647644</v>
+        <v>2.243164777755737</v>
       </c>
       <c r="B404" t="n">
         <v>2.422</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2.29461932182312</v>
+        <v>2.237435102462769</v>
       </c>
       <c r="B405" t="n">
         <v>2.424</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2.281981706619263</v>
+        <v>2.233779668807983</v>
       </c>
       <c r="B406" t="n">
         <v>2.432</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.257001876831055</v>
+        <v>2.233807802200317</v>
       </c>
       <c r="B407" t="n">
         <v>2.437</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.253853559494019</v>
+        <v>2.239274978637695</v>
       </c>
       <c r="B408" t="n">
         <v>2.437</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2.253646850585938</v>
+        <v>2.244217395782471</v>
       </c>
       <c r="B409" t="n">
         <v>2.435</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.253878831863403</v>
+        <v>2.255180597305298</v>
       </c>
       <c r="B410" t="n">
         <v>2.43</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2.24149227142334</v>
+        <v>2.264302968978882</v>
       </c>
       <c r="B411" t="n">
         <v>2.425</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2.238558292388916</v>
+        <v>2.271921157836914</v>
       </c>
       <c r="B412" t="n">
         <v>2.427</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.242291212081909</v>
+        <v>2.284276723861694</v>
       </c>
       <c r="B413" t="n">
         <v>2.438</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.240664958953857</v>
+        <v>2.299950122833252</v>
       </c>
       <c r="B414" t="n">
         <v>2.45</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2.239751100540161</v>
+        <v>2.304797172546387</v>
       </c>
       <c r="B415" t="n">
         <v>2.46</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.230018615722656</v>
+        <v>2.308582782745361</v>
       </c>
       <c r="B416" t="n">
         <v>2.46</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.234316349029541</v>
+        <v>2.309201002120972</v>
       </c>
       <c r="B417" t="n">
         <v>2.455</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.240549564361572</v>
+        <v>2.303712844848633</v>
       </c>
       <c r="B418" t="n">
         <v>2.449</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.241277694702148</v>
+        <v>2.294912338256836</v>
       </c>
       <c r="B419" t="n">
         <v>2.442</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.238808155059814</v>
+        <v>2.282590627670288</v>
       </c>
       <c r="B420" t="n">
         <v>2.433</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.237571001052856</v>
+        <v>2.264535188674927</v>
       </c>
       <c r="B421" t="n">
         <v>2.434</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.232331037521362</v>
+        <v>2.251043319702148</v>
       </c>
       <c r="B422" t="n">
         <v>2.433</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.232916355133057</v>
+        <v>2.231192588806152</v>
       </c>
       <c r="B423" t="n">
         <v>2.425</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2.236709833145142</v>
+        <v>2.218020677566528</v>
       </c>
       <c r="B424" t="n">
         <v>2.418</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.230613470077515</v>
+        <v>2.20709753036499</v>
       </c>
       <c r="B425" t="n">
         <v>2.418</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.217662334442139</v>
+        <v>2.2041335105896</v>
       </c>
       <c r="B426" t="n">
         <v>2.421</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2.231900930404663</v>
+        <v>2.209707975387573</v>
       </c>
       <c r="B427" t="n">
         <v>2.431</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2.266242504119873</v>
+        <v>2.21736216545105</v>
       </c>
       <c r="B428" t="n">
         <v>2.439</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.283843517303467</v>
+        <v>2.232787609100342</v>
       </c>
       <c r="B429" t="n">
         <v>2.444</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2.297455549240112</v>
+        <v>2.241384744644165</v>
       </c>
       <c r="B430" t="n">
         <v>2.44</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2.305540800094604</v>
+        <v>2.255530834197998</v>
       </c>
       <c r="B431" t="n">
         <v>2.428</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2.30454421043396</v>
+        <v>2.268744468688965</v>
       </c>
       <c r="B432" t="n">
         <v>2.4</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2.289582967758179</v>
+        <v>2.284541845321655</v>
       </c>
       <c r="B433" t="n">
         <v>2.37</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2.277543067932129</v>
+        <v>2.295992851257324</v>
       </c>
       <c r="B434" t="n">
         <v>2.341</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2.270566701889038</v>
+        <v>2.304339647293091</v>
       </c>
       <c r="B435" t="n">
         <v>2.316</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>2.26768159866333</v>
+        <v>2.308662891387939</v>
       </c>
       <c r="B436" t="n">
         <v>2.299</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>2.255234718322754</v>
+        <v>2.30676794052124</v>
       </c>
       <c r="B437" t="n">
         <v>2.296</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>2.23053240776062</v>
+        <v>2.302137851715088</v>
       </c>
       <c r="B438" t="n">
         <v>2.307</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>2.201238393783569</v>
+        <v>2.293779373168945</v>
       </c>
       <c r="B439" t="n">
         <v>2.322</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>2.178940296173096</v>
+        <v>2.273880481719971</v>
       </c>
       <c r="B440" t="n">
         <v>2.342</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.170995235443115</v>
+        <v>2.26226806640625</v>
       </c>
       <c r="B441" t="n">
         <v>2.363</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.17317008972168</v>
+        <v>2.245977640151978</v>
       </c>
       <c r="B442" t="n">
         <v>2.385</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.177832841873169</v>
+        <v>2.227893352508545</v>
       </c>
       <c r="B443" t="n">
         <v>2.403</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.183634757995605</v>
+        <v>2.219718456268311</v>
       </c>
       <c r="B444" t="n">
         <v>2.423</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.183380603790283</v>
+        <v>2.210470676422119</v>
       </c>
       <c r="B445" t="n">
         <v>2.447</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.178212642669678</v>
+        <v>2.210858345031738</v>
       </c>
       <c r="B446" t="n">
         <v>2.473</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.176720857620239</v>
+        <v>2.209652900695801</v>
       </c>
       <c r="B447" t="n">
         <v>2.495</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.172990798950195</v>
+        <v>2.214732885360718</v>
       </c>
       <c r="B448" t="n">
         <v>2.51</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.184308767318726</v>
+        <v>2.217017889022827</v>
       </c>
       <c r="B449" t="n">
         <v>2.513</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>2.201992273330688</v>
+        <v>2.216822385787964</v>
       </c>
       <c r="B450" t="n">
         <v>2.509</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>2.225640535354614</v>
+        <v>2.2155601978302</v>
       </c>
       <c r="B451" t="n">
         <v>2.5</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>2.250561952590942</v>
+        <v>2.21772837638855</v>
       </c>
       <c r="B452" t="n">
         <v>2.489</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>2.270758628845215</v>
+        <v>2.219464540481567</v>
       </c>
       <c r="B453" t="n">
         <v>2.478</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>2.282135725021362</v>
+        <v>2.223975896835327</v>
       </c>
       <c r="B454" t="n">
         <v>2.469</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>2.280160665512085</v>
+        <v>2.231762170791626</v>
       </c>
       <c r="B455" t="n">
         <v>2.456</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.279876232147217</v>
+        <v>2.238018989562988</v>
       </c>
       <c r="B456" t="n">
         <v>2.434</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>2.282346487045288</v>
+        <v>2.23995566368103</v>
       </c>
       <c r="B457" t="n">
         <v>2.404</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>2.287766218185425</v>
+        <v>2.241968631744385</v>
       </c>
       <c r="B458" t="n">
         <v>2.365</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>2.297751665115356</v>
+        <v>2.237204074859619</v>
       </c>
       <c r="B459" t="n">
         <v>2.325</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>2.300578117370605</v>
+        <v>2.233068466186523</v>
       </c>
       <c r="B460" t="n">
         <v>2.291</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>2.288650274276733</v>
+        <v>2.227476358413696</v>
       </c>
       <c r="B461" t="n">
         <v>2.269</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>2.262940883636475</v>
+        <v>2.216771602630615</v>
       </c>
       <c r="B462" t="n">
         <v>2.265</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.25091552734375</v>
+        <v>2.202812433242798</v>
       </c>
       <c r="B463" t="n">
         <v>2.275</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>2.249123573303223</v>
+        <v>2.197152376174927</v>
       </c>
       <c r="B464" t="n">
         <v>2.293</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.26056432723999</v>
+        <v>2.192011117935181</v>
       </c>
       <c r="B465" t="n">
         <v>2.307</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>2.245034456253052</v>
+        <v>2.18989109992981</v>
       </c>
       <c r="B466" t="n">
         <v>2.314</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.224175214767456</v>
+        <v>2.191725015640259</v>
       </c>
       <c r="B467" t="n">
         <v>2.315</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.211485624313354</v>
+        <v>2.199007511138916</v>
       </c>
       <c r="B468" t="n">
         <v>2.319</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.198280811309814</v>
+        <v>2.212009429931641</v>
       </c>
       <c r="B469" t="n">
         <v>2.321</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.19498348236084</v>
+        <v>2.225174903869629</v>
       </c>
       <c r="B470" t="n">
         <v>2.32</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.186119794845581</v>
+        <v>2.236292839050293</v>
       </c>
       <c r="B471" t="n">
         <v>2.316</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.185304403305054</v>
+        <v>2.244877815246582</v>
       </c>
       <c r="B472" t="n">
         <v>2.31</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.189304828643799</v>
+        <v>2.25101375579834</v>
       </c>
       <c r="B473" t="n">
         <v>2.31</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.183676958084106</v>
+        <v>2.256626129150391</v>
       </c>
       <c r="B474" t="n">
         <v>2.309</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>2.176776885986328</v>
+        <v>2.260101556777954</v>
       </c>
       <c r="B475" t="n">
         <v>2.313</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.1737380027771</v>
+        <v>2.261462688446045</v>
       </c>
       <c r="B476" t="n">
         <v>2.311</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.170910120010376</v>
+        <v>2.264044761657715</v>
       </c>
       <c r="B477" t="n">
         <v>2.302</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>2.174580097198486</v>
+        <v>2.262337446212769</v>
       </c>
       <c r="B478" t="n">
         <v>2.291</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.180550336837769</v>
+        <v>2.26177978515625</v>
       </c>
       <c r="B479" t="n">
         <v>2.281</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>2.188049077987671</v>
+        <v>2.254859924316406</v>
       </c>
       <c r="B480" t="n">
         <v>2.286</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>2.186615467071533</v>
+        <v>2.25441575050354</v>
       </c>
       <c r="B481" t="n">
         <v>2.296</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>2.172411203384399</v>
+        <v>2.250173568725586</v>
       </c>
       <c r="B482" t="n">
         <v>2.298</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>2.160905122756958</v>
+        <v>2.246152639389038</v>
       </c>
       <c r="B483" t="n">
         <v>2.29</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>2.156084537506104</v>
+        <v>2.242350578308105</v>
       </c>
       <c r="B484" t="n">
         <v>2.268</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>2.164494752883911</v>
+        <v>2.240752935409546</v>
       </c>
       <c r="B485" t="n">
         <v>2.251</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>2.183710336685181</v>
+        <v>2.236800909042358</v>
       </c>
       <c r="B486" t="n">
         <v>2.239</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.195866107940674</v>
+        <v>2.232132196426392</v>
       </c>
       <c r="B487" t="n">
         <v>2.242</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>2.206451416015625</v>
+        <v>2.233590126037598</v>
       </c>
       <c r="B488" t="n">
         <v>2.259</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>2.218340158462524</v>
+        <v>2.233574390411377</v>
       </c>
       <c r="B489" t="n">
         <v>2.279</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.217543840408325</v>
+        <v>2.239471912384033</v>
       </c>
       <c r="B490" t="n">
         <v>2.297</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.214507341384888</v>
+        <v>2.245660781860352</v>
       </c>
       <c r="B491" t="n">
         <v>2.309</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.210699558258057</v>
+        <v>2.250500917434692</v>
       </c>
       <c r="B492" t="n">
         <v>2.316</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.208576440811157</v>
+        <v>2.255005121231079</v>
       </c>
       <c r="B493" t="n">
         <v>2.323</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.210055351257324</v>
+        <v>2.251033306121826</v>
       </c>
       <c r="B494" t="n">
         <v>2.326</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>2.217919111251831</v>
+        <v>2.246091365814209</v>
       </c>
       <c r="B495" t="n">
         <v>2.319</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>2.229973554611206</v>
+        <v>2.234055042266846</v>
       </c>
       <c r="B496" t="n">
         <v>2.302</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.245350360870361</v>
+        <v>2.220646381378174</v>
       </c>
       <c r="B497" t="n">
         <v>2.294</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.239261388778687</v>
+        <v>2.21234130859375</v>
       </c>
       <c r="B498" t="n">
         <v>2.298</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.236551284790039</v>
+        <v>2.208848476409912</v>
       </c>
       <c r="B499" t="n">
         <v>2.316</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>2.223331451416016</v>
+        <v>2.207037925720215</v>
       </c>
       <c r="B500" t="n">
         <v>2.336</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>2.226455688476562</v>
+        <v>2.207550287246704</v>
       </c>
       <c r="B501" t="n">
         <v>2.363</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>2.233531713485718</v>
+        <v>2.204553127288818</v>
       </c>
       <c r="B502" t="n">
         <v>2.38</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>2.228494882583618</v>
+        <v>2.19867467880249</v>
       </c>
       <c r="B503" t="n">
         <v>2.39</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.219537734985352</v>
+        <v>2.203932046890259</v>
       </c>
       <c r="B504" t="n">
         <v>2.389</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>2.218605995178223</v>
+        <v>2.208376884460449</v>
       </c>
       <c r="B505" t="n">
         <v>2.392</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>2.230216026306152</v>
+        <v>2.214446783065796</v>
       </c>
       <c r="B506" t="n">
         <v>2.397</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.249434471130371</v>
+        <v>2.215733051300049</v>
       </c>
       <c r="B507" t="n">
         <v>2.402</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>2.268734693527222</v>
+        <v>2.22046422958374</v>
       </c>
       <c r="B508" t="n">
         <v>2.4</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>2.278455257415771</v>
+        <v>2.221842765808105</v>
       </c>
       <c r="B509" t="n">
         <v>2.397</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>2.283003807067871</v>
+        <v>2.223788261413574</v>
       </c>
       <c r="B510" t="n">
         <v>2.388</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>2.277491569519043</v>
+        <v>2.221420764923096</v>
       </c>
       <c r="B511" t="n">
         <v>2.379</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>2.283254384994507</v>
+        <v>2.223330497741699</v>
       </c>
       <c r="B512" t="n">
         <v>2.358</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>2.289508819580078</v>
+        <v>2.222139835357666</v>
       </c>
       <c r="B513" t="n">
         <v>2.342</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>2.29949426651001</v>
+        <v>2.214481115341187</v>
       </c>
       <c r="B514" t="n">
         <v>2.328</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>2.298359870910645</v>
+        <v>2.21114444732666</v>
       </c>
       <c r="B515" t="n">
         <v>2.319</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>2.289307117462158</v>
+        <v>2.204333543777466</v>
       </c>
       <c r="B516" t="n">
         <v>2.308</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>2.279986381530762</v>
+        <v>2.196327686309814</v>
       </c>
       <c r="B517" t="n">
         <v>2.304</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>2.25434947013855</v>
+        <v>2.201607942581177</v>
       </c>
       <c r="B518" t="n">
         <v>2.304</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>2.235231161117554</v>
+        <v>2.207120418548584</v>
       </c>
       <c r="B519" t="n">
         <v>2.311</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.235579490661621</v>
+        <v>2.219282627105713</v>
       </c>
       <c r="B520" t="n">
         <v>2.33</v>
